--- a/GPR/results_g/all_metrics.xlsx
+++ b/GPR/results_g/all_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>r2_training</t>
+          <t>r2_test</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mse_training</t>
+          <t>mse_test</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mape_training</t>
+          <t>mape_test</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rmse_training</t>
+          <t>rmse_test</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>r2_test</t>
+          <t>r2_vs</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>mse_test</t>
+          <t>mse_vs</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>mape_test</t>
+          <t>mape_vs</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>rmse_test</t>
+          <t>rmse_vs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>r2_vs</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mse_vs</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>mape_vs</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_vs</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Kernel</t>
         </is>
@@ -522,54 +502,42 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8279410897949298</v>
+        <v>0.8279410895582564</v>
       </c>
       <c r="B2" t="n">
-        <v>1.150558724799738</v>
+        <v>1.150558726382374</v>
       </c>
       <c r="C2" t="n">
-        <v>1.928099374289143</v>
+        <v>1.928099377909652</v>
       </c>
       <c r="D2" t="n">
-        <v>1.072641004623512</v>
+        <v>1.072641005361241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.812596694487752</v>
       </c>
       <c r="F2" t="n">
-        <v>1.239085204215409e-15</v>
+        <v>0.6703307575493209</v>
       </c>
       <c r="G2" t="n">
-        <v>3.978386133874624e-08</v>
+        <v>0.3912529869704837</v>
       </c>
       <c r="H2" t="n">
-        <v>3.52006420994761e-08</v>
+        <v>0.8187372945880266</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8125966947821041</v>
+        <v>0.8381668518268482</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6703307564964405</v>
+        <v>1.004372750444871</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3912529855922722</v>
+        <v>1.023605295675912</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8187372939450361</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.03495533394730188</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279.1431230989059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.151784256505881</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.70757681708828</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+        <v>1.002183990315586</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>RBF</t>
         </is>
@@ -577,109 +545,85 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7543574650078059</v>
+        <v>0.7543574647673595</v>
       </c>
       <c r="B3" t="n">
-        <v>1.642612762572672</v>
+        <v>1.642612764180538</v>
       </c>
       <c r="C3" t="n">
-        <v>1.356114231852372</v>
+        <v>1.356114230960144</v>
       </c>
       <c r="D3" t="n">
-        <v>1.281644553912149</v>
+        <v>1.281644554539416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7675885757354772</v>
       </c>
       <c r="F3" t="n">
-        <v>6.477600436022537e-16</v>
+        <v>0.8313221886055374</v>
       </c>
       <c r="G3" t="n">
-        <v>2.445574918701144e-08</v>
+        <v>3.478574488141885</v>
       </c>
       <c r="H3" t="n">
-        <v>2.545113049752906e-08</v>
+        <v>0.9117687144257239</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7675885758795747</v>
+        <v>0.7667261123846064</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8313221880901087</v>
+        <v>1.447749974316511</v>
       </c>
       <c r="K3" t="n">
-        <v>3.478574486900967</v>
+        <v>0.8687693026741286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9117687141430708</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.03047818420372139</v>
-      </c>
-      <c r="N3" t="n">
-        <v>277.935568027676</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.096375289124395</v>
-      </c>
-      <c r="P3" t="n">
-        <v>16.67139970211488</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Matern_1.5</t>
+        <v>1.203224822847547</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Matern_0.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8279408057508532</v>
+        <v>0.8279408056191435</v>
       </c>
       <c r="B4" t="n">
-        <v>1.150560624203786</v>
+        <v>1.150560625084529</v>
       </c>
       <c r="C4" t="n">
-        <v>1.928096496819407</v>
+        <v>1.928096498863575</v>
       </c>
       <c r="D4" t="n">
-        <v>1.072641890009795</v>
+        <v>1.072641890420344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.8125967518320625</v>
       </c>
       <c r="F4" t="n">
-        <v>1.239071284893164e-15</v>
+        <v>0.6703305524320474</v>
       </c>
       <c r="G4" t="n">
-        <v>3.978298387019703e-08</v>
+        <v>0.3912274299785801</v>
       </c>
       <c r="H4" t="n">
-        <v>3.52004443848819e-08</v>
+        <v>0.818737169323616</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8125967519799799</v>
+        <v>0.8381666317317387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6703305519029552</v>
+        <v>1.004374116404398</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3912274296648656</v>
+        <v>1.023603835096794</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8187371690005012</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.03495523385900867</v>
-      </c>
-      <c r="N4" t="n">
-        <v>279.1430961035779</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.15178408718919</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16.70757600921145</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+        <v>1.002184671806748</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>RationalQuadratic</t>
         </is>
@@ -687,54 +631,42 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8279412425053962</v>
+        <v>0.8279410670123399</v>
       </c>
       <c r="B5" t="n">
-        <v>1.150557703624145</v>
+        <v>1.15055887714702</v>
       </c>
       <c r="C5" t="n">
-        <v>1.928097028494213</v>
+        <v>1.928099017629703</v>
       </c>
       <c r="D5" t="n">
-        <v>1.072640528613452</v>
+        <v>1.072641075638548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.8125967065228952</v>
       </c>
       <c r="F5" t="n">
-        <v>1.239068115644036e-15</v>
+        <v>0.6703307145003117</v>
       </c>
       <c r="G5" t="n">
-        <v>3.978333715323918e-08</v>
+        <v>0.3912504615958605</v>
       </c>
       <c r="H5" t="n">
-        <v>3.520039936767815e-08</v>
+        <v>0.8187372682981469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8125968852607734</v>
+        <v>0.838166835407087</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6703300751652849</v>
+        <v>1.004372852349585</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3912520597340128</v>
+        <v>1.023605121471817</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8187368778583782</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.03495532816531965</v>
-      </c>
-      <c r="N5" t="n">
-        <v>279.1431215394177</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.151784284100593</v>
-      </c>
-      <c r="P5" t="n">
-        <v>16.7075767704182</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+        <v>1.002184041156905</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>ExpSineSquared</t>
         </is>
@@ -742,54 +674,42 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2819326326057247</v>
+        <v>0.281932692313457</v>
       </c>
       <c r="B6" t="n">
-        <v>4.801719792161721</v>
+        <v>4.801719392895841</v>
       </c>
       <c r="C6" t="n">
-        <v>2.625724143929713</v>
+        <v>2.625724923012809</v>
       </c>
       <c r="D6" t="n">
-        <v>2.191282681938075</v>
+        <v>2.191282590834838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3374109323434695</v>
+        <v>0.2983028613606485</v>
       </c>
       <c r="F6" t="n">
-        <v>2.78074457422182</v>
+        <v>2.509929978175148</v>
       </c>
       <c r="G6" t="n">
-        <v>3.634305696920159</v>
+        <v>8.835420966828657</v>
       </c>
       <c r="H6" t="n">
-        <v>1.667556468075915</v>
+        <v>1.584275852929391</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2983028670454085</v>
+        <v>0.296803636346945</v>
       </c>
       <c r="J6" t="n">
-        <v>2.509929957841091</v>
+        <v>4.364194071719984</v>
       </c>
       <c r="K6" t="n">
-        <v>8.835418817740806</v>
+        <v>4.498193682469465</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58427584651193</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.03894236419609531</v>
-      </c>
-      <c r="N6" t="n">
-        <v>280.218485521836</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9816838376231927</v>
-      </c>
-      <c r="P6" t="n">
-        <v>16.73972776128202</v>
-      </c>
-      <c r="Q6" t="inlineStr">
+        <v>2.0890653584127</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DotProduct</t>
         </is>
